--- a/BackTest/2019-10-31 BackTest CMT.xlsx
+++ b/BackTest/2019-10-31 BackTest CMT.xlsx
@@ -451,20 +451,14 @@
         <v>24.36666666666668</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>24.33333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>24.30000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>24.50000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>24.60000000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>24.70000000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>24.63333333333335</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>24.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>24.66666666666669</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>24.7</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>24.73333333333335</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>24.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>24.80000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>24.93333333333335</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>25.00000000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>25.1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>25.03333333333335</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>25</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>25.00000000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>25.30000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>25.1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>25.30000000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>26</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1114,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1153,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1192,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1231,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1270,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1348,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1465,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1504,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1543,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1777,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1894,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2050,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2128,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2206,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2245,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2323,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2362,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2479,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2557,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2635,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2752,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2791,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2830,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2986,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3064,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3181,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3220,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3298,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3333,15 +3009,11 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3415,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3450,16 +3114,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3487,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3522,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3557,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3592,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -4397,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4432,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4642,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4677,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4712,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -6392,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6427,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6462,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -22769,13 +22431,17 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K630" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
@@ -22804,14 +22470,22 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K631" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22839,14 +22513,22 @@
         <v>25.36666666666667</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K632" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22874,14 +22556,22 @@
         <v>25.43333333333334</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K633" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22909,14 +22599,22 @@
         <v>25.46666666666667</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K634" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22944,14 +22642,22 @@
         <v>25.5</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K635" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -22979,14 +22685,22 @@
         <v>25.5</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K636" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23014,14 +22728,22 @@
         <v>25.5</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K637" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23055,8 +22777,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23090,8 +22818,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23125,8 +22859,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23160,8 +22900,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23195,8 +22941,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23230,8 +22982,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23265,8 +23023,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23300,8 +23064,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23335,8 +23105,14 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23370,8 +23146,14 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23405,8 +23187,14 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23440,8 +23228,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23475,8 +23269,14 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23510,8 +23310,14 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23545,8 +23351,14 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23580,8 +23392,14 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23615,8 +23433,14 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23650,8 +23474,14 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23685,8 +23515,14 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23720,8 +23556,14 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23755,8 +23597,14 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23790,8 +23638,14 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23825,8 +23679,14 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23860,8 +23720,14 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23895,8 +23761,14 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23930,8 +23802,14 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23965,8 +23843,14 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24000,8 +23884,14 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24035,8 +23925,14 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24070,8 +23966,14 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24105,8 +24007,14 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24140,8 +24048,14 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24175,8 +24089,14 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24210,8 +24130,14 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24245,8 +24171,14 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24280,8 +24212,14 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24315,8 +24253,14 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24350,8 +24294,14 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24385,8 +24335,14 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24420,8 +24376,14 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24455,8 +24417,14 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24490,8 +24458,14 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24525,8 +24499,14 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24560,8 +24540,14 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24595,8 +24581,14 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24630,8 +24622,14 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24665,8 +24663,14 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24700,8 +24704,14 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24735,8 +24745,14 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24770,8 +24786,14 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24805,8 +24827,14 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24840,8 +24868,14 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24875,8 +24909,14 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24910,8 +24950,14 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24945,8 +24991,14 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24980,8 +25032,14 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25015,8 +25073,14 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25050,8 +25114,14 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25085,8 +25155,14 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25120,8 +25196,14 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25155,8 +25237,14 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25190,8 +25278,14 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25225,8 +25319,14 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25260,8 +25360,14 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25295,8 +25401,14 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25330,8 +25442,14 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25365,8 +25483,14 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25400,8 +25524,14 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +25565,14 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25470,8 +25606,14 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25505,8 +25647,14 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25540,8 +25688,14 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25575,8 +25729,14 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25610,8 +25770,14 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25645,8 +25811,14 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25680,8 +25852,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25715,8 +25893,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25750,8 +25934,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25785,8 +25975,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25820,8 +26016,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25855,8 +26057,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25890,8 +26098,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25925,8 +26139,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25960,8 +26180,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -25995,8 +26221,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26030,8 +26262,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26065,8 +26303,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26100,8 +26344,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26135,8 +26385,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26170,8 +26426,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26205,8 +26467,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26240,8 +26508,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26275,8 +26549,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26310,8 +26590,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26345,8 +26631,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26380,8 +26672,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26415,8 +26713,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26450,8 +26754,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26485,8 +26795,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26520,8 +26836,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26555,8 +26877,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26590,8 +26918,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26625,8 +26959,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26660,8 +27000,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26695,8 +27041,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26730,8 +27082,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26765,8 +27123,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26800,8 +27164,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26835,8 +27205,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26864,18 +27240,18 @@
         <v>24.79999999999997</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>25</v>
-      </c>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M747" t="n">
@@ -26905,15 +27281,15 @@
         <v>24.99999999999997</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>25</v>
-      </c>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26946,15 +27322,15 @@
         <v>24.8333333333333</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26987,15 +27363,15 @@
         <v>24.66666666666664</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27028,15 +27404,15 @@
         <v>24.56666666666664</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27069,15 +27445,15 @@
         <v>24.5333333333333</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
       </c>
-      <c r="J752" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27110,15 +27486,15 @@
         <v>24.5333333333333</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27151,15 +27527,15 @@
         <v>24.5333333333333</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
       </c>
-      <c r="J754" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27192,15 +27568,15 @@
         <v>24.63333333333331</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27233,15 +27609,15 @@
         <v>24.69999999999997</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
       </c>
-      <c r="J756" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27274,15 +27650,15 @@
         <v>24.73333333333331</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
       </c>
-      <c r="J757" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27315,15 +27691,15 @@
         <v>24.86666666666664</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
       </c>
-      <c r="J758" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27356,15 +27732,15 @@
         <v>25.13333333333331</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
-      <c r="J759" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27397,15 +27773,15 @@
         <v>25.29999999999997</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
       </c>
-      <c r="J760" t="n">
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="n">
         <v>25.3</v>
       </c>
-      <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27438,15 +27814,15 @@
         <v>25.3333333333333</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I761" t="n">
         <v>0</v>
       </c>
-      <c r="J761" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27485,7 +27861,9 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27518,15 +27896,15 @@
         <v>25.23333333333331</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I763" t="n">
         <v>0</v>
       </c>
-      <c r="J763" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27565,7 +27943,9 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27604,7 +27984,9 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27643,7 +28025,9 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27682,7 +28066,9 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27721,7 +28107,9 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27760,7 +28148,9 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27799,7 +28189,9 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27838,7 +28230,9 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27877,7 +28271,9 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27916,7 +28312,9 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27949,15 +28347,15 @@
         <v>24.76666666666665</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
         <v>0</v>
       </c>
-      <c r="J774" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27990,15 +28388,15 @@
         <v>24.73333333333332</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28031,15 +28429,15 @@
         <v>24.69999999999998</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28072,15 +28470,15 @@
         <v>24.76666666666665</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="n">
         <v>0</v>
       </c>
-      <c r="J777" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28113,15 +28511,15 @@
         <v>24.83333333333331</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="n">
         <v>0</v>
       </c>
-      <c r="J778" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28154,15 +28552,15 @@
         <v>24.79999999999998</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="n">
         <v>0</v>
       </c>
-      <c r="J779" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28195,15 +28593,15 @@
         <v>24.73333333333332</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="n">
         <v>0</v>
       </c>
-      <c r="J780" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28236,15 +28634,15 @@
         <v>24.69999999999999</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="n">
         <v>0</v>
       </c>
-      <c r="J781" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28277,15 +28675,15 @@
         <v>24.66666666666665</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0</v>
       </c>
-      <c r="J782" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28318,15 +28716,15 @@
         <v>24.66666666666665</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="n">
         <v>0</v>
       </c>
-      <c r="J783" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28359,15 +28757,15 @@
         <v>24.63333333333332</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="n">
         <v>0</v>
       </c>
-      <c r="J784" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28400,15 +28798,15 @@
         <v>24.69999999999999</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28441,15 +28839,15 @@
         <v>24.73333333333332</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28482,15 +28880,15 @@
         <v>24.79999999999998</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
       </c>
-      <c r="J787" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28523,15 +28921,15 @@
         <v>24.79999999999998</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
       </c>
-      <c r="J788" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28564,15 +28962,15 @@
         <v>24.83333333333332</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
       </c>
-      <c r="J789" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28605,15 +29003,15 @@
         <v>24.79999999999999</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28646,15 +29044,15 @@
         <v>24.83333333333332</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28687,15 +29085,15 @@
         <v>24.86666666666666</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28728,15 +29126,15 @@
         <v>24.93333333333332</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
       </c>
-      <c r="J793" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28769,15 +29167,15 @@
         <v>24.83333333333333</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="n">
         <v>0</v>
       </c>
-      <c r="J794" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28810,15 +29208,15 @@
         <v>24.69999999999999</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="n">
         <v>0</v>
       </c>
-      <c r="J795" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28851,15 +29249,15 @@
         <v>24.49999999999999</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="n">
         <v>0</v>
       </c>
-      <c r="J796" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28892,15 +29290,15 @@
         <v>24.49999999999999</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="n">
         <v>0</v>
       </c>
-      <c r="J797" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28933,15 +29331,15 @@
         <v>24.63333333333333</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="n">
         <v>0</v>
       </c>
-      <c r="J798" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28974,15 +29372,15 @@
         <v>24.76666666666666</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="n">
         <v>0</v>
       </c>
-      <c r="J799" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29015,15 +29413,15 @@
         <v>24.83333333333333</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29056,15 +29454,15 @@
         <v>24.69999999999999</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="n">
         <v>0</v>
       </c>
-      <c r="J801" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29097,15 +29495,15 @@
         <v>24.69999999999999</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
         <v>0</v>
       </c>
-      <c r="J802" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29138,15 +29536,15 @@
         <v>24.66666666666666</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29179,15 +29577,15 @@
         <v>24.69999999999999</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
       </c>
-      <c r="J804" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29220,15 +29618,15 @@
         <v>24.63333333333332</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
       </c>
-      <c r="J805" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29261,15 +29659,15 @@
         <v>24.43333333333332</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
       </c>
-      <c r="J806" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29302,15 +29700,15 @@
         <v>24.26666666666666</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
       </c>
-      <c r="J807" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29343,15 +29741,15 @@
         <v>24.16666666666666</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
       </c>
-      <c r="J808" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29384,15 +29782,15 @@
         <v>24.19999999999999</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29425,15 +29823,15 @@
         <v>24.23333333333332</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29466,15 +29864,15 @@
         <v>24.26666666666665</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29507,15 +29905,15 @@
         <v>24.29999999999998</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29548,15 +29946,15 @@
         <v>24.26666666666665</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29589,15 +29987,15 @@
         <v>24.26666666666665</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29630,15 +30028,15 @@
         <v>24.26666666666665</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="n">
         <v>0</v>
       </c>
-      <c r="J815" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29671,15 +30069,15 @@
         <v>24.26666666666665</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
         <v>0</v>
       </c>
-      <c r="J816" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29712,15 +30110,15 @@
         <v>24.33333333333332</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="n">
         <v>0</v>
       </c>
-      <c r="J817" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29753,15 +30151,15 @@
         <v>24.33333333333332</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="n">
         <v>0</v>
       </c>
-      <c r="J818" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29794,15 +30192,15 @@
         <v>24.26666666666665</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="n">
         <v>0</v>
       </c>
-      <c r="J819" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29835,15 +30233,15 @@
         <v>24.19999999999999</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="n">
         <v>0</v>
       </c>
-      <c r="J820" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29876,15 +30274,15 @@
         <v>24.06666666666665</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="n">
         <v>0</v>
       </c>
-      <c r="J821" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29917,15 +30315,15 @@
         <v>24.03333333333331</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="n">
         <v>0</v>
       </c>
-      <c r="J822" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29958,15 +30356,15 @@
         <v>23.89999999999998</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
       </c>
-      <c r="J823" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29999,15 +30397,15 @@
         <v>23.89999999999998</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
         <v>0</v>
       </c>
-      <c r="J824" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30040,15 +30438,15 @@
         <v>23.89999999999998</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="n">
         <v>0</v>
       </c>
-      <c r="J825" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30081,15 +30479,15 @@
         <v>23.96666666666664</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30122,15 +30520,15 @@
         <v>23.96666666666664</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30163,15 +30561,15 @@
         <v>24.0333333333333</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="n">
         <v>0</v>
       </c>
-      <c r="J828" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30204,15 +30602,15 @@
         <v>23.99999999999997</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="n">
         <v>0</v>
       </c>
-      <c r="J829" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30245,15 +30643,15 @@
         <v>24.0333333333333</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="n">
         <v>0</v>
       </c>
-      <c r="J830" t="n">
-        <v>24</v>
-      </c>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30286,15 +30684,15 @@
         <v>23.99999999999997</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>24</v>
-      </c>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30327,15 +30725,15 @@
         <v>23.99999999999997</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>24</v>
-      </c>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30368,15 +30766,15 @@
         <v>24.06666666666664</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30409,15 +30807,15 @@
         <v>24.16666666666664</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30450,15 +30848,15 @@
         <v>24.13333333333331</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30491,15 +30889,15 @@
         <v>24.06666666666664</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
       </c>
-      <c r="J836" t="n">
-        <v>24</v>
-      </c>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30532,15 +30930,15 @@
         <v>24.03333333333331</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30573,15 +30971,15 @@
         <v>24.09999999999998</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>24</v>
-      </c>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30614,15 +31012,15 @@
         <v>24.06666666666665</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30655,15 +31053,15 @@
         <v>24.03333333333331</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30696,15 +31094,15 @@
         <v>23.96666666666664</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30737,15 +31135,15 @@
         <v>24.0333333333333</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30778,15 +31176,15 @@
         <v>23.96666666666664</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30819,15 +31217,15 @@
         <v>23.96666666666664</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30860,15 +31258,15 @@
         <v>24.0333333333333</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="n">
         <v>0</v>
       </c>
-      <c r="J845" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30901,15 +31299,15 @@
         <v>24.16666666666664</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="n">
         <v>0</v>
       </c>
-      <c r="J846" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30942,15 +31340,15 @@
         <v>24.46666666666664</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30983,15 +31381,15 @@
         <v>24.59999999999998</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31024,15 +31422,15 @@
         <v>24.79999999999998</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31065,15 +31463,15 @@
         <v>24.89999999999998</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>25</v>
-      </c>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31106,15 +31504,15 @@
         <v>24.93333333333331</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>25</v>
-      </c>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31147,15 +31545,15 @@
         <v>24.93333333333331</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31188,15 +31586,15 @@
         <v>24.89999999999998</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31229,15 +31627,15 @@
         <v>24.99999999999998</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>25</v>
-      </c>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31270,15 +31668,15 @@
         <v>25.06666666666665</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>25</v>
-      </c>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31311,15 +31709,15 @@
         <v>25.06666666666665</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31352,15 +31750,15 @@
         <v>24.96666666666664</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L857" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-31 BackTest CMT.xlsx
+++ b/BackTest/2019-10-31 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>493669.6693506383</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>493669.6693506383</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>23</v>
@@ -521,7 +521,7 @@
         <v>535069.6693506383</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>23</v>
@@ -562,7 +562,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>23.2</v>
@@ -603,7 +603,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>23</v>
@@ -640,7 +640,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>23</v>
@@ -681,7 +681,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>23</v>
@@ -722,7 +722,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>23</v>
@@ -759,7 +759,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>23</v>
@@ -800,7 +800,7 @@
         <v>446724.9099506383</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>23</v>
@@ -841,7 +841,7 @@
         <v>665661.9098506384</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>23</v>
@@ -882,7 +882,7 @@
         <v>665661.9098506384</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>23.1</v>
@@ -923,7 +923,7 @@
         <v>665661.9098506384</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>23.1</v>
@@ -964,7 +964,7 @@
         <v>751584.7512506384</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>23.1</v>
@@ -1005,7 +1005,7 @@
         <v>781263.9787506384</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>23.3</v>
@@ -1046,7 +1046,7 @@
         <v>781263.9787506384</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>23.4</v>
@@ -1087,7 +1087,7 @@
         <v>781263.9787506384</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>23.4</v>
@@ -1128,7 +1128,7 @@
         <v>807313.7353000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>23.4</v>
@@ -1169,7 +1169,7 @@
         <v>1144520.0362</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>23.5</v>
@@ -1210,7 +1210,7 @@
         <v>1496482.3601</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>24</v>
@@ -1251,7 +1251,7 @@
         <v>1642637.5401</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>24.3</v>
@@ -1292,7 +1292,7 @@
         <v>1981791.6082</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>24.5</v>
@@ -1333,7 +1333,7 @@
         <v>1981791.6082</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>25.1</v>
@@ -1374,7 +1374,7 @@
         <v>2389758.033683334</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>25.1</v>
@@ -1415,7 +1415,7 @@
         <v>2322632.181166667</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>25.8</v>
@@ -1456,7 +1456,7 @@
         <v>2639212.140266667</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>25.4</v>
@@ -1497,7 +1497,7 @@
         <v>2301179.912666667</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>26</v>
@@ -1538,11 +1538,9 @@
         <v>2490387.924066667</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>23</v>
       </c>
@@ -1579,11 +1577,9 @@
         <v>1992093.692466667</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>23</v>
       </c>
@@ -1776,9 +1772,11 @@
         <v>2164790.095966667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>26</v>
+      </c>
       <c r="J35" t="n">
         <v>23</v>
       </c>
@@ -2127,9 +2125,11 @@
         <v>1233302.457766667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25.5</v>
+      </c>
       <c r="J44" t="n">
         <v>23</v>
       </c>
@@ -2166,9 +2166,11 @@
         <v>1287352.699966667</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J45" t="n">
         <v>23</v>
       </c>
@@ -2205,9 +2207,11 @@
         <v>1242574.102766667</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25.3</v>
+      </c>
       <c r="J46" t="n">
         <v>23</v>
       </c>
@@ -2244,9 +2248,11 @@
         <v>1352092.153966667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J47" t="n">
         <v>23</v>
       </c>
@@ -2283,9 +2289,11 @@
         <v>1199097.246966667</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25.3</v>
+      </c>
       <c r="J48" t="n">
         <v>23</v>
       </c>
@@ -2322,9 +2330,11 @@
         <v>1082567.819966668</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J49" t="n">
         <v>23</v>
       </c>
@@ -2361,9 +2371,11 @@
         <v>1082567.819966668</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J50" t="n">
         <v>23</v>
       </c>
@@ -2400,9 +2412,11 @@
         <v>1088469.027666667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J51" t="n">
         <v>23</v>
       </c>
@@ -2439,9 +2453,11 @@
         <v>955844.1991666674</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J52" t="n">
         <v>23</v>
       </c>
@@ -2478,9 +2494,11 @@
         <v>981457.5910666675</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J53" t="n">
         <v>23</v>
       </c>
@@ -2517,9 +2535,11 @@
         <v>981457.5910666675</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J54" t="n">
         <v>23</v>
       </c>
@@ -2556,9 +2576,11 @@
         <v>972710.7472666674</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J55" t="n">
         <v>23</v>
       </c>
@@ -2595,9 +2617,11 @@
         <v>969094.4977666674</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J56" t="n">
         <v>23</v>
       </c>
@@ -2634,9 +2658,11 @@
         <v>863515.4122666674</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J57" t="n">
         <v>23</v>
       </c>
@@ -2673,9 +2699,11 @@
         <v>903394.6710666673</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J58" t="n">
         <v>23</v>
       </c>
@@ -2712,9 +2740,11 @@
         <v>818324.2330666673</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J59" t="n">
         <v>23</v>
       </c>
@@ -2751,9 +2781,11 @@
         <v>818324.2330666673</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J60" t="n">
         <v>23</v>
       </c>
@@ -2790,9 +2822,11 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J61" t="n">
         <v>23</v>
       </c>
@@ -2829,9 +2863,11 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J62" t="n">
         <v>23</v>
       </c>
@@ -2868,9 +2904,11 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J63" t="n">
         <v>23</v>
       </c>
@@ -2907,9 +2945,11 @@
         <v>1085769.908366667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J64" t="n">
         <v>23</v>
       </c>
@@ -2946,9 +2986,11 @@
         <v>1074919.002266667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J65" t="n">
         <v>23</v>
       </c>
@@ -2985,9 +3027,11 @@
         <v>1074919.002266667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J66" t="n">
         <v>23</v>
       </c>
@@ -3024,9 +3068,11 @@
         <v>1100735.949966667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J67" t="n">
         <v>23</v>
       </c>
@@ -3063,9 +3109,11 @@
         <v>1100735.949966667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J68" t="n">
         <v>23</v>
       </c>
@@ -3102,9 +3150,11 @@
         <v>1245799.572866667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J69" t="n">
         <v>23</v>
       </c>
@@ -3141,9 +3191,11 @@
         <v>1337276.834693651</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J70" t="n">
         <v>23</v>
       </c>
@@ -3180,9 +3232,11 @@
         <v>1435244.059093651</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J71" t="n">
         <v>23</v>
       </c>
@@ -3258,9 +3312,11 @@
         <v>1434402.059093651</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
       <c r="J73" t="n">
         <v>23</v>
       </c>
@@ -3531,9 +3587,11 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J80" t="n">
         <v>23</v>
       </c>
@@ -3570,9 +3628,11 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J81" t="n">
         <v>23</v>
       </c>
@@ -3609,9 +3669,11 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J82" t="n">
         <v>23</v>
       </c>
@@ -3687,9 +3749,11 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J84" t="n">
         <v>23</v>
       </c>
@@ -3726,9 +3790,11 @@
         <v>1823457.657893651</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J85" t="n">
         <v>23</v>
       </c>
@@ -3765,9 +3831,11 @@
         <v>1823457.657893651</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J86" t="n">
         <v>23</v>
       </c>
@@ -3804,9 +3872,11 @@
         <v>1823457.657893651</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J87" t="n">
         <v>23</v>
       </c>
@@ -3843,9 +3913,11 @@
         <v>1906572.320393651</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J88" t="n">
         <v>23</v>
       </c>
@@ -5871,7 +5943,7 @@
         <v>10546273.25563978</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
@@ -6027,7 +6099,7 @@
         <v>10035475.69924092</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
@@ -6339,7 +6411,7 @@
         <v>9982028.238626897</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
@@ -6378,7 +6450,7 @@
         <v>10321775.45319303</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
@@ -7275,7 +7347,7 @@
         <v>10598959.47242682</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
@@ -7283,13 +7355,15 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>1.338478260869565</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7317,14 +7391,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>23</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7356,14 +7424,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>23</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7395,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>23</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7431,17 +7487,11 @@
         <v>10521538.41592682</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>23</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7473,14 +7523,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>23</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7512,14 +7556,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>23</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7551,14 +7589,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>23</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7590,14 +7622,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>23</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7629,14 +7655,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>23</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7668,14 +7688,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>23</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7707,14 +7721,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>23</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7746,14 +7754,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>23</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7785,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>23</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7824,14 +7820,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>23</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7863,14 +7853,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>23</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7902,14 +7886,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>23</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +7919,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>23</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7980,14 +7952,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>23</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8019,14 +7985,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>23</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8058,14 +8018,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>23</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8097,14 +8051,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>23</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8136,14 +8084,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>23</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8175,14 +8117,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>23</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8214,14 +8150,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>23</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8253,14 +8183,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>23</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8292,14 +8216,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>23</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8331,14 +8249,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>23</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8370,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>23</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8409,14 +8315,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>23</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8448,14 +8348,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>23</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8484,23 +8378,15 @@
         <v>10606520.81067039</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>23</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>1.399347826086957</v>
-      </c>
-      <c r="M207" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8756,7 +8642,7 @@
         <v>11636467.40525384</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8789,7 +8675,7 @@
         <v>11994311.08061156</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8822,7 +8708,7 @@
         <v>11875429.87681156</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8855,7 +8741,7 @@
         <v>12591748.13731156</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8888,7 +8774,7 @@
         <v>11947401.13754489</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8921,7 +8807,7 @@
         <v>12687907.57691106</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8954,7 +8840,7 @@
         <v>11769397.646767</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8987,7 +8873,7 @@
         <v>11213921.950667</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9020,7 +8906,7 @@
         <v>11687097.208167</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9053,7 +8939,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9086,7 +8972,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9119,7 +9005,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9152,7 +9038,7 @@
         <v>11954098.525467</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9185,7 +9071,7 @@
         <v>11166580.42296699</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9218,7 +9104,7 @@
         <v>10839222.11236699</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9251,7 +9137,7 @@
         <v>11368114.43014868</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9284,7 +9170,7 @@
         <v>10877025.76714868</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9317,7 +9203,7 @@
         <v>11064087.91004868</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9350,7 +9236,7 @@
         <v>11329107.92337951</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9383,7 +9269,7 @@
         <v>11299742.39897951</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9416,7 +9302,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9449,7 +9335,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9482,7 +9368,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9515,7 +9401,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9548,7 +9434,7 @@
         <v>10894366.50617952</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9581,7 +9467,7 @@
         <v>11012423.03997952</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9614,7 +9500,7 @@
         <v>10809450.64027951</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9647,7 +9533,7 @@
         <v>10673598.46177951</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9680,7 +9566,7 @@
         <v>10252011.51619046</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9713,7 +9599,7 @@
         <v>10456087.23109046</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9746,7 +9632,7 @@
         <v>10275723.99949046</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9779,7 +9665,7 @@
         <v>10276173.66869046</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9812,7 +9698,7 @@
         <v>10107432.74199046</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9845,7 +9731,7 @@
         <v>9918908.551290456</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9878,7 +9764,7 @@
         <v>9712437.251890456</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9911,7 +9797,7 @@
         <v>9764014.141790457</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9944,7 +9830,7 @@
         <v>9957499.868590457</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9977,7 +9863,7 @@
         <v>9893258.945590457</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10010,7 +9896,7 @@
         <v>9893258.945590457</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10043,7 +9929,7 @@
         <v>9956472.420512276</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10076,7 +9962,7 @@
         <v>9956332.420512276</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10109,7 +9995,7 @@
         <v>9977713.401512276</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10142,7 +10028,7 @@
         <v>9861183.641012276</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10175,7 +10061,7 @@
         <v>9648871.506712276</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10208,7 +10094,7 @@
         <v>9701581.082912276</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10241,7 +10127,7 @@
         <v>9660613.484212276</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10274,7 +10160,7 @@
         <v>8763707.303512275</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10307,7 +10193,7 @@
         <v>9132052.282412276</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10340,7 +10226,7 @@
         <v>8896931.021512276</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10373,7 +10259,7 @@
         <v>8938113.533512276</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10406,7 +10292,7 @@
         <v>9050970.721112275</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10439,7 +10325,7 @@
         <v>8819467.150419462</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10472,7 +10358,7 @@
         <v>8937229.891519463</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10505,7 +10391,7 @@
         <v>8937229.891519463</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10538,7 +10424,7 @@
         <v>8937229.891519463</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10571,7 +10457,7 @@
         <v>9089402.348819463</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10604,7 +10490,7 @@
         <v>8841241.386554113</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10637,7 +10523,7 @@
         <v>8886890.532154113</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10670,7 +10556,7 @@
         <v>9105484.201762401</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10703,7 +10589,7 @@
         <v>9105484.201762401</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10736,7 +10622,7 @@
         <v>9010679.795562401</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10769,7 +10655,7 @@
         <v>9010679.795562401</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10802,7 +10688,7 @@
         <v>9158904.325562401</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10835,7 +10721,7 @@
         <v>8958109.960162401</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10868,7 +10754,7 @@
         <v>8867860.406662401</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10901,7 +10787,7 @@
         <v>8864471.693562401</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10934,7 +10820,7 @@
         <v>8889804.773662401</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10967,7 +10853,7 @@
         <v>9018861.752862401</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11000,7 +10886,7 @@
         <v>9043758.968662402</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11033,7 +10919,7 @@
         <v>9101043.739362402</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11066,7 +10952,7 @@
         <v>9087751.566862402</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11198,7 +11084,7 @@
         <v>9005943.680662401</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11231,7 +11117,7 @@
         <v>9006593.680662401</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11297,7 +11183,7 @@
         <v>8947745.911662402</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11396,7 +11282,7 @@
         <v>9013149.341262402</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11429,7 +11315,7 @@
         <v>9010751.028562402</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11462,7 +11348,7 @@
         <v>9011667.023862403</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11495,7 +11381,7 @@
         <v>9043815.739362404</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11528,7 +11414,7 @@
         <v>9042563.739362404</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11660,7 +11546,7 @@
         <v>8815351.183862403</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11726,7 +11612,7 @@
         <v>8995270.588762404</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11759,7 +11645,7 @@
         <v>9142741.759254973</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11792,7 +11678,7 @@
         <v>9142832.759254973</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11825,7 +11711,7 @@
         <v>9142832.759254973</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11891,7 +11777,7 @@
         <v>9082042.031554975</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12023,7 +11909,7 @@
         <v>8894301.475354975</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12056,7 +11942,7 @@
         <v>8946105.501054974</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12089,7 +11975,7 @@
         <v>8930973.682854975</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12188,7 +12074,7 @@
         <v>8891409.078154974</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12221,7 +12107,7 @@
         <v>8559364.357354974</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12254,7 +12140,7 @@
         <v>8638521.444054974</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12287,7 +12173,7 @@
         <v>8593497.797554974</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12320,7 +12206,7 @@
         <v>8682315.730654974</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12353,7 +12239,7 @@
         <v>8630957.874154974</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -13607,7 +13493,7 @@
         <v>8873047.872089192</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13640,7 +13526,7 @@
         <v>8873047.872089192</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13673,7 +13559,7 @@
         <v>8873047.872089192</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13706,7 +13592,7 @@
         <v>8813598.076465808</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13739,7 +13625,7 @@
         <v>8843208.395265808</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14828,7 +14714,7 @@
         <v>8850460.910265809</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14927,7 +14813,7 @@
         <v>8827894.620165808</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14960,7 +14846,7 @@
         <v>8793806.453265809</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14993,7 +14879,7 @@
         <v>8731511.278265808</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -19910,7 +19796,7 @@
         <v>6149193.867233389</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19943,7 +19829,7 @@
         <v>6149193.867233389</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -27863,11 +27749,17 @@
         <v>977850.9642332479</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27896,11 +27788,17 @@
         <v>977871.9642332479</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27929,11 +27827,17 @@
         <v>977871.9642332479</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27966,7 +27870,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27999,7 +27907,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28032,7 +27944,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28061,11 +27977,17 @@
         <v>820057.554933248</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28098,7 +28020,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28131,7 +28057,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28164,7 +28094,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28197,7 +28131,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28226,11 +28164,17 @@
         <v>701224.6018332479</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28259,11 +28203,17 @@
         <v>701224.6018332479</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>25</v>
+      </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28292,11 +28242,17 @@
         <v>701224.6018332479</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>25</v>
+      </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28325,11 +28281,17 @@
         <v>697159.4818332479</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>25</v>
+      </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28358,11 +28320,17 @@
         <v>697159.4818332479</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28391,11 +28359,17 @@
         <v>1140943.015533248</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28424,11 +28398,17 @@
         <v>1115732.708833248</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28457,11 +28437,17 @@
         <v>1179572.419933248</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28490,11 +28476,17 @@
         <v>1188432.419933248</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28523,11 +28515,17 @@
         <v>1188432.419933248</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28556,11 +28554,17 @@
         <v>1188432.419933248</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28589,11 +28593,17 @@
         <v>1291363.169333248</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28622,11 +28632,17 @@
         <v>1370155.650033248</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28659,7 +28675,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28692,7 +28712,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28725,7 +28749,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28758,7 +28786,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28791,7 +28823,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28824,7 +28860,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28857,7 +28897,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28890,7 +28934,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28923,7 +28971,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28956,7 +29008,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28989,7 +29045,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29022,7 +29082,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29055,7 +29119,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29088,7 +29156,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29121,7 +29193,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29154,7 +29230,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29187,7 +29267,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29216,11 +29300,17 @@
         <v>1464703.681133248</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29249,11 +29339,17 @@
         <v>1472392.681133248</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29286,7 +29382,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29319,7 +29419,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29352,7 +29456,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29385,7 +29493,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29418,7 +29530,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29447,11 +29563,17 @@
         <v>1402547.502133247</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29484,7 +29606,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29517,7 +29643,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29550,7 +29680,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29583,7 +29717,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29612,11 +29750,17 @@
         <v>1335376.379933247</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29649,7 +29793,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29682,7 +29830,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29715,7 +29867,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29748,7 +29904,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29781,7 +29941,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29814,7 +29978,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29847,7 +30015,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29876,11 +30048,17 @@
         <v>1047722.624433247</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29909,11 +30087,17 @@
         <v>1166947.771733247</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29942,11 +30126,17 @@
         <v>1232790.982533247</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29975,11 +30165,17 @@
         <v>1232758.982533247</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>25</v>
+      </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30008,11 +30204,17 @@
         <v>1232838.982533247</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30041,11 +30243,17 @@
         <v>1229503.676333247</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30074,11 +30282,17 @@
         <v>1229513.676333247</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30107,11 +30321,17 @@
         <v>1229513.676333247</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30140,11 +30360,17 @@
         <v>1229513.676333247</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30173,11 +30399,17 @@
         <v>1129003.676333247</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30206,11 +30438,17 @@
         <v>702742.6308332474</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30239,11 +30477,17 @@
         <v>1193353.686833248</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30272,11 +30516,17 @@
         <v>1193353.686833248</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30305,11 +30555,17 @@
         <v>1193353.686833248</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30338,11 +30594,17 @@
         <v>1219214.696133248</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30371,11 +30633,17 @@
         <v>1219214.696133248</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30404,11 +30672,17 @@
         <v>1219214.696133248</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30437,11 +30711,17 @@
         <v>1217217.314033248</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30470,11 +30750,17 @@
         <v>1235011.386533248</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30503,11 +30789,17 @@
         <v>1235011.386533248</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30536,11 +30828,17 @@
         <v>1224661.726633247</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30569,11 +30867,17 @@
         <v>1251198.893233248</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30602,11 +30906,17 @@
         <v>1234898.079633248</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30635,11 +30945,17 @@
         <v>1017676.748333248</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30668,11 +30984,17 @@
         <v>1109272.714033248</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>24</v>
+      </c>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30701,11 +31023,17 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30734,11 +31062,17 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30767,11 +31101,17 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30800,11 +31140,17 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30833,11 +31179,17 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30866,11 +31218,17 @@
         <v>1088045.330033248</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30899,11 +31257,17 @@
         <v>1074419.943533248</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30932,11 +31296,17 @@
         <v>1114177.238833248</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30965,11 +31335,17 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30998,11 +31374,17 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>24</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31031,11 +31413,17 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>24</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31064,11 +31452,17 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>24</v>
+      </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31097,11 +31491,17 @@
         <v>1214681.256233248</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>24</v>
+      </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31130,11 +31530,17 @@
         <v>1229617.830833248</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31163,11 +31569,17 @@
         <v>1156117.830833248</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31196,11 +31608,17 @@
         <v>1156167.830833248</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31229,11 +31647,17 @@
         <v>1156177.830833248</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>24</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31262,11 +31686,17 @@
         <v>1151599.908133248</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31295,11 +31725,17 @@
         <v>1144158.065933248</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31328,11 +31764,17 @@
         <v>1144168.065933248</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31361,11 +31803,17 @@
         <v>1105168.065933248</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31394,11 +31842,17 @@
         <v>1105178.065933248</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31427,11 +31881,17 @@
         <v>1092178.065933248</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31460,11 +31920,17 @@
         <v>1092178.065933248</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31493,11 +31959,17 @@
         <v>1133778.065933248</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31526,11 +31998,17 @@
         <v>1133778.065933248</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31559,11 +32037,17 @@
         <v>1184886.298533248</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31592,11 +32076,17 @@
         <v>1180122.126533248</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31625,11 +32115,17 @@
         <v>1273159.855233248</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31658,11 +32154,17 @@
         <v>1310728.027233248</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31691,11 +32193,17 @@
         <v>1102746.220233248</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31728,7 +32236,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31761,7 +32273,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31790,11 +32306,17 @@
         <v>1198593.626433248</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>25</v>
+      </c>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31823,11 +32345,17 @@
         <v>1198593.626433248</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31860,7 +32388,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31893,7 +32425,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31922,11 +32458,17 @@
         <v>1216462.172233248</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31955,11 +32497,17 @@
         <v>1216472.172233248</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31988,11 +32536,17 @@
         <v>1102349.932233248</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>25</v>
+      </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32021,11 +32575,17 @@
         <v>1102385.788733248</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32054,11 +32614,17 @@
         <v>1102385.788733248</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32087,11 +32653,17 @@
         <v>1053280.022633248</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32120,11 +32692,17 @@
         <v>1146794.550933248</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32153,11 +32731,17 @@
         <v>1140156.886133248</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32186,11 +32770,17 @@
         <v>1140156.886133248</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32219,17 +32809,23 @@
         <v>1140156.886133248</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
       <c r="M926" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CMT.xlsx
+++ b/BackTest/2019-10-31 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,11 +1210,9 @@
         <v>1496482.3601</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>23</v>
       </c>
@@ -1251,11 +1249,9 @@
         <v>1642637.5401</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>23</v>
       </c>
@@ -1292,11 +1288,9 @@
         <v>1981791.6082</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>23</v>
       </c>
@@ -1333,11 +1327,9 @@
         <v>1981791.6082</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>23</v>
       </c>
@@ -1374,11 +1366,9 @@
         <v>2389758.033683334</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>23</v>
       </c>
@@ -1415,11 +1405,9 @@
         <v>2322632.181166667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>23</v>
       </c>
@@ -1456,11 +1444,9 @@
         <v>2639212.140266667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>23</v>
       </c>
@@ -1497,11 +1483,9 @@
         <v>2301179.912666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>23</v>
       </c>
@@ -1772,11 +1756,9 @@
         <v>2164790.095966667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>23</v>
       </c>
@@ -2125,11 +2107,9 @@
         <v>1233302.457766667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>25.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>23</v>
       </c>
@@ -2166,11 +2146,9 @@
         <v>1287352.699966667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>23</v>
       </c>
@@ -2207,11 +2185,9 @@
         <v>1242574.102766667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>23</v>
       </c>
@@ -2248,11 +2224,9 @@
         <v>1352092.153966667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>23</v>
       </c>
@@ -2289,11 +2263,9 @@
         <v>1199097.246966667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>23</v>
       </c>
@@ -2330,11 +2302,9 @@
         <v>1082567.819966668</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>23</v>
       </c>
@@ -2371,11 +2341,9 @@
         <v>1082567.819966668</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>23</v>
       </c>
@@ -2412,11 +2380,9 @@
         <v>1088469.027666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>23</v>
       </c>
@@ -2453,11 +2419,9 @@
         <v>955844.1991666674</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>23</v>
       </c>
@@ -2494,11 +2458,9 @@
         <v>981457.5910666675</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>23</v>
       </c>
@@ -2535,11 +2497,9 @@
         <v>981457.5910666675</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>23</v>
       </c>
@@ -2576,11 +2536,9 @@
         <v>972710.7472666674</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>23</v>
       </c>
@@ -2617,11 +2575,9 @@
         <v>969094.4977666674</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>23</v>
       </c>
@@ -2658,11 +2614,9 @@
         <v>863515.4122666674</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>23</v>
       </c>
@@ -2699,11 +2653,9 @@
         <v>903394.6710666673</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>23</v>
       </c>
@@ -2740,11 +2692,9 @@
         <v>818324.2330666673</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>23</v>
       </c>
@@ -2781,11 +2731,9 @@
         <v>818324.2330666673</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>23</v>
       </c>
@@ -2822,11 +2770,9 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>23</v>
       </c>
@@ -2863,11 +2809,9 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>23</v>
       </c>
@@ -2904,11 +2848,9 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>23</v>
       </c>
@@ -2945,11 +2887,9 @@
         <v>1085769.908366667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>23</v>
       </c>
@@ -2986,11 +2926,9 @@
         <v>1074919.002266667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>23</v>
       </c>
@@ -3027,11 +2965,9 @@
         <v>1074919.002266667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>23</v>
       </c>
@@ -3068,11 +3004,9 @@
         <v>1100735.949966667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>23</v>
       </c>
@@ -3109,11 +3043,9 @@
         <v>1100735.949966667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>23</v>
       </c>
@@ -3150,11 +3082,9 @@
         <v>1245799.572866667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>23</v>
       </c>
@@ -3191,11 +3121,9 @@
         <v>1337276.834693651</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>23</v>
       </c>
@@ -3232,11 +3160,9 @@
         <v>1435244.059093651</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>23</v>
       </c>
@@ -3312,11 +3238,9 @@
         <v>1434402.059093651</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>23</v>
       </c>
@@ -3587,11 +3511,9 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>23</v>
       </c>
@@ -3628,11 +3550,9 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>23</v>
       </c>
@@ -3669,11 +3589,9 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>23</v>
       </c>
@@ -3749,11 +3667,9 @@
         <v>1808058.541493651</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>23</v>
       </c>
@@ -3790,11 +3706,9 @@
         <v>1823457.657893651</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>23</v>
       </c>
@@ -3831,11 +3745,9 @@
         <v>1823457.657893651</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>23</v>
       </c>
@@ -3872,11 +3784,9 @@
         <v>1823457.657893651</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>23</v>
       </c>
@@ -3913,11 +3823,9 @@
         <v>1906572.320393651</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>23</v>
       </c>
@@ -6138,7 +6046,7 @@
         <v>9711867.008140923</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
@@ -6146,13 +6054,15 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>1.286304347826087</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6177,17 +6087,11 @@
         <v>9888788.351651814</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>23</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6216,17 +6120,11 @@
         <v>10020362.34675181</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>23</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6255,17 +6153,11 @@
         <v>10165697.82285181</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>23</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6294,17 +6186,11 @@
         <v>10413859.7292269</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>23</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6333,17 +6219,11 @@
         <v>10733669.3704269</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>23</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6372,17 +6252,11 @@
         <v>9936935.015126897</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>23</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6411,17 +6285,11 @@
         <v>9982028.238626897</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>23</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6450,17 +6318,11 @@
         <v>10321775.45319303</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>23</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6489,17 +6351,11 @@
         <v>10663298.56485296</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>23</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6528,17 +6384,11 @@
         <v>10508712.90294492</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>23</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6567,17 +6417,11 @@
         <v>10777478.28783688</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>23</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6606,17 +6450,11 @@
         <v>11846107.64413719</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>23</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6645,17 +6483,11 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>23</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6684,17 +6516,11 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>23</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6723,17 +6549,11 @@
         <v>11580366.43979216</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>23</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6762,17 +6582,11 @@
         <v>11817040.63862682</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>23</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6801,17 +6615,11 @@
         <v>10765394.09952682</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>23</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6840,17 +6648,11 @@
         <v>10488635.03952682</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>23</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6879,17 +6681,11 @@
         <v>10546588.12262682</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>23</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6918,17 +6714,11 @@
         <v>10969227.23502682</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>23</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +6750,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>23</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +6783,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>23</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6816,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>23</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6849,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>23</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>23</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7155,14 +6915,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>23</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7194,14 +6948,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>23</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7233,14 +6981,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>23</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7272,14 +7014,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>23</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +7047,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>23</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7347,23 +7077,15 @@
         <v>10598959.47242682</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>23</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>1.338478260869565</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8642,7 +8364,7 @@
         <v>11636467.40525384</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8675,7 +8397,7 @@
         <v>11994311.08061156</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8708,7 +8430,7 @@
         <v>11875429.87681156</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8741,7 +8463,7 @@
         <v>12591748.13731156</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8774,7 +8496,7 @@
         <v>11947401.13754489</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8807,7 +8529,7 @@
         <v>12687907.57691106</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8840,7 +8562,7 @@
         <v>11769397.646767</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8873,7 +8595,7 @@
         <v>11213921.950667</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8906,7 +8628,7 @@
         <v>11687097.208167</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8939,7 +8661,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8972,7 +8694,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9005,7 +8727,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9038,7 +8760,7 @@
         <v>11954098.525467</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9071,7 +8793,7 @@
         <v>11166580.42296699</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9104,7 +8826,7 @@
         <v>10839222.11236699</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9137,7 +8859,7 @@
         <v>11368114.43014868</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9170,7 +8892,7 @@
         <v>10877025.76714868</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9203,7 +8925,7 @@
         <v>11064087.91004868</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9236,7 +8958,7 @@
         <v>11329107.92337951</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9269,7 +8991,7 @@
         <v>11299742.39897951</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9302,7 +9024,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9335,7 +9057,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9368,7 +9090,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9401,7 +9123,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9434,7 +9156,7 @@
         <v>10894366.50617952</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9467,7 +9189,7 @@
         <v>11012423.03997952</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9500,7 +9222,7 @@
         <v>10809450.64027951</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9533,7 +9255,7 @@
         <v>10673598.46177951</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9566,7 +9288,7 @@
         <v>10252011.51619046</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9599,7 +9321,7 @@
         <v>10456087.23109046</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9632,7 +9354,7 @@
         <v>10275723.99949046</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9665,7 +9387,7 @@
         <v>10276173.66869046</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9698,7 +9420,7 @@
         <v>10107432.74199046</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9731,7 +9453,7 @@
         <v>9918908.551290456</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9764,7 +9486,7 @@
         <v>9712437.251890456</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9797,7 +9519,7 @@
         <v>9764014.141790457</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9830,7 +9552,7 @@
         <v>9957499.868590457</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9863,7 +9585,7 @@
         <v>9893258.945590457</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9896,7 +9618,7 @@
         <v>9893258.945590457</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9929,7 +9651,7 @@
         <v>9956472.420512276</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9962,7 +9684,7 @@
         <v>9956332.420512276</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9995,7 +9717,7 @@
         <v>9977713.401512276</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10028,7 +9750,7 @@
         <v>9861183.641012276</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10061,7 +9783,7 @@
         <v>9648871.506712276</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10094,7 +9816,7 @@
         <v>9701581.082912276</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10127,7 +9849,7 @@
         <v>9660613.484212276</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10160,7 +9882,7 @@
         <v>8763707.303512275</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10193,7 +9915,7 @@
         <v>9132052.282412276</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10226,7 +9948,7 @@
         <v>8896931.021512276</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10259,7 +9981,7 @@
         <v>8938113.533512276</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10292,7 +10014,7 @@
         <v>9050970.721112275</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10325,7 +10047,7 @@
         <v>8819467.150419462</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10358,7 +10080,7 @@
         <v>8937229.891519463</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10391,7 +10113,7 @@
         <v>8937229.891519463</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10424,7 +10146,7 @@
         <v>8937229.891519463</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10457,7 +10179,7 @@
         <v>9089402.348819463</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10490,7 +10212,7 @@
         <v>8841241.386554113</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10523,7 +10245,7 @@
         <v>8886890.532154113</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10556,7 +10278,7 @@
         <v>9105484.201762401</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10589,7 +10311,7 @@
         <v>9105484.201762401</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10622,7 +10344,7 @@
         <v>9010679.795562401</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10655,7 +10377,7 @@
         <v>9010679.795562401</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10688,7 +10410,7 @@
         <v>9158904.325562401</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10721,7 +10443,7 @@
         <v>8958109.960162401</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10754,7 +10476,7 @@
         <v>8867860.406662401</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10787,7 +10509,7 @@
         <v>8864471.693562401</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10820,7 +10542,7 @@
         <v>8889804.773662401</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10853,7 +10575,7 @@
         <v>9018861.752862401</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10886,7 +10608,7 @@
         <v>9043758.968662402</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10919,7 +10641,7 @@
         <v>9101043.739362402</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10952,7 +10674,7 @@
         <v>9087751.566862402</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11084,7 +10806,7 @@
         <v>9005943.680662401</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11117,7 +10839,7 @@
         <v>9006593.680662401</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11183,7 +10905,7 @@
         <v>8947745.911662402</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11282,7 +11004,7 @@
         <v>9013149.341262402</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11315,7 +11037,7 @@
         <v>9010751.028562402</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11348,7 +11070,7 @@
         <v>9011667.023862403</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11381,7 +11103,7 @@
         <v>9043815.739362404</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11414,7 +11136,7 @@
         <v>9042563.739362404</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11546,7 +11268,7 @@
         <v>8815351.183862403</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11612,7 +11334,7 @@
         <v>8995270.588762404</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11645,7 +11367,7 @@
         <v>9142741.759254973</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11678,7 +11400,7 @@
         <v>9142832.759254973</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11711,7 +11433,7 @@
         <v>9142832.759254973</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11777,7 +11499,7 @@
         <v>9082042.031554975</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11909,7 +11631,7 @@
         <v>8894301.475354975</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11942,7 +11664,7 @@
         <v>8946105.501054974</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11975,7 +11697,7 @@
         <v>8930973.682854975</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12074,7 +11796,7 @@
         <v>8891409.078154974</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12107,7 +11829,7 @@
         <v>8559364.357354974</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12140,7 +11862,7 @@
         <v>8638521.444054974</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12173,7 +11895,7 @@
         <v>8593497.797554974</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12206,7 +11928,7 @@
         <v>8682315.730654974</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12239,7 +11961,7 @@
         <v>8630957.874154974</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -27749,17 +27471,11 @@
         <v>977850.9642332479</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27788,17 +27504,11 @@
         <v>977871.9642332479</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27827,17 +27537,11 @@
         <v>977871.9642332479</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27870,11 +27574,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +27607,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27944,11 +27640,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27977,17 +27669,11 @@
         <v>820057.554933248</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28020,11 +27706,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28057,11 +27739,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28094,11 +27772,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28131,11 +27805,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28164,17 +27834,11 @@
         <v>701224.6018332479</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28203,17 +27867,11 @@
         <v>701224.6018332479</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28242,17 +27900,11 @@
         <v>701224.6018332479</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28281,17 +27933,11 @@
         <v>697159.4818332479</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28320,17 +27966,11 @@
         <v>697159.4818332479</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28359,17 +27999,11 @@
         <v>1140943.015533248</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28398,17 +28032,11 @@
         <v>1115732.708833248</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28437,17 +28065,11 @@
         <v>1179572.419933248</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28476,17 +28098,11 @@
         <v>1188432.419933248</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28515,17 +28131,11 @@
         <v>1188432.419933248</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28554,17 +28164,11 @@
         <v>1188432.419933248</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28593,17 +28197,11 @@
         <v>1291363.169333248</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28632,17 +28230,11 @@
         <v>1370155.650033248</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28675,11 +28267,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28712,11 +28300,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28749,11 +28333,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28786,11 +28366,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28823,11 +28399,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28860,11 +28432,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +28465,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28934,11 +28498,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28971,11 +28531,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29008,11 +28564,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29045,11 +28597,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29082,11 +28630,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29119,11 +28663,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29156,11 +28696,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29193,11 +28729,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29230,11 +28762,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29267,11 +28795,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29300,17 +28824,11 @@
         <v>1464703.681133248</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29339,17 +28857,11 @@
         <v>1472392.681133248</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29382,11 +28894,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29419,11 +28927,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29456,11 +28960,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29493,11 +28993,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29530,11 +29026,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29563,17 +29055,11 @@
         <v>1402547.502133247</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29606,11 +29092,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29643,11 +29125,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29680,11 +29158,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29717,11 +29191,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29750,17 +29220,11 @@
         <v>1335376.379933247</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29793,11 +29257,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29830,11 +29290,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29867,11 +29323,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29904,11 +29356,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29941,11 +29389,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29978,11 +29422,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30015,11 +29455,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30048,17 +29484,11 @@
         <v>1047722.624433247</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30087,17 +29517,11 @@
         <v>1166947.771733247</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30126,17 +29550,11 @@
         <v>1232790.982533247</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30165,17 +29583,11 @@
         <v>1232758.982533247</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30204,17 +29616,11 @@
         <v>1232838.982533247</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30243,17 +29649,11 @@
         <v>1229503.676333247</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30282,17 +29682,11 @@
         <v>1229513.676333247</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30321,17 +29715,11 @@
         <v>1229513.676333247</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30360,17 +29748,11 @@
         <v>1229513.676333247</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30399,17 +29781,11 @@
         <v>1129003.676333247</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30438,17 +29814,11 @@
         <v>702742.6308332474</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30477,17 +29847,11 @@
         <v>1193353.686833248</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30516,17 +29880,11 @@
         <v>1193353.686833248</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30555,17 +29913,11 @@
         <v>1193353.686833248</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30594,17 +29946,11 @@
         <v>1219214.696133248</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30633,17 +29979,11 @@
         <v>1219214.696133248</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30672,17 +30012,11 @@
         <v>1219214.696133248</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30711,17 +30045,11 @@
         <v>1217217.314033248</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30750,17 +30078,11 @@
         <v>1235011.386533248</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30789,17 +30111,11 @@
         <v>1235011.386533248</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30828,17 +30144,11 @@
         <v>1224661.726633247</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30867,17 +30177,11 @@
         <v>1251198.893233248</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30906,17 +30210,11 @@
         <v>1234898.079633248</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30945,17 +30243,11 @@
         <v>1017676.748333248</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30984,17 +30276,11 @@
         <v>1109272.714033248</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31023,17 +30309,11 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31062,17 +30342,11 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31101,17 +30375,11 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31140,17 +30408,11 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31179,17 +30441,11 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31218,17 +30474,11 @@
         <v>1088045.330033248</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31257,17 +30507,11 @@
         <v>1074419.943533248</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31296,17 +30540,11 @@
         <v>1114177.238833248</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31335,17 +30573,11 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31374,17 +30606,11 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31413,17 +30639,11 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31452,17 +30672,11 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31491,17 +30705,11 @@
         <v>1214681.256233248</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31530,17 +30738,11 @@
         <v>1229617.830833248</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31569,17 +30771,11 @@
         <v>1156117.830833248</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31608,17 +30804,11 @@
         <v>1156167.830833248</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31647,17 +30837,11 @@
         <v>1156177.830833248</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31686,17 +30870,11 @@
         <v>1151599.908133248</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31725,17 +30903,11 @@
         <v>1144158.065933248</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31764,17 +30936,11 @@
         <v>1144168.065933248</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31803,17 +30969,11 @@
         <v>1105168.065933248</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31842,17 +31002,11 @@
         <v>1105178.065933248</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31881,17 +31035,11 @@
         <v>1092178.065933248</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31920,17 +31068,11 @@
         <v>1092178.065933248</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31959,17 +31101,11 @@
         <v>1133778.065933248</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31998,17 +31134,11 @@
         <v>1133778.065933248</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32037,17 +31167,11 @@
         <v>1184886.298533248</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32076,17 +31200,11 @@
         <v>1180122.126533248</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32115,17 +31233,11 @@
         <v>1273159.855233248</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32154,17 +31266,11 @@
         <v>1310728.027233248</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -32193,17 +31299,11 @@
         <v>1102746.220233248</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32236,11 +31336,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32273,11 +31369,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32306,17 +31398,11 @@
         <v>1198593.626433248</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32345,17 +31431,11 @@
         <v>1198593.626433248</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32388,11 +31468,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32425,11 +31501,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32458,17 +31530,11 @@
         <v>1216462.172233248</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32497,17 +31563,11 @@
         <v>1216472.172233248</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32536,17 +31596,11 @@
         <v>1102349.932233248</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32575,17 +31629,11 @@
         <v>1102385.788733248</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32614,17 +31662,11 @@
         <v>1102385.788733248</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32653,17 +31695,11 @@
         <v>1053280.022633248</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32692,17 +31728,11 @@
         <v>1146794.550933248</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32731,17 +31761,11 @@
         <v>1140156.886133248</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32770,17 +31794,11 @@
         <v>1140156.886133248</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32809,23 +31827,17 @@
         <v>1140156.886133248</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
       <c r="M926" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CMT.xlsx
+++ b/BackTest/2019-10-31 BackTest CMT.xlsx
@@ -1210,9 +1210,11 @@
         <v>1496482.3601</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
       <c r="J21" t="n">
         <v>23</v>
       </c>
@@ -1249,9 +1251,11 @@
         <v>1642637.5401</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J22" t="n">
         <v>23</v>
       </c>
@@ -1288,9 +1292,11 @@
         <v>1981791.6082</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J23" t="n">
         <v>23</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>9711867.008140923</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
@@ -6054,15 +6060,13 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.286304347826087</v>
-      </c>
-      <c r="M145" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6087,11 +6091,17 @@
         <v>9888788.351651814</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>23</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6120,11 +6130,17 @@
         <v>10020362.34675181</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>23</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +6169,17 @@
         <v>10165697.82285181</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>23</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6186,11 +6208,17 @@
         <v>10413859.7292269</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>23</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6219,11 +6247,17 @@
         <v>10733669.3704269</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>23</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6252,11 +6286,17 @@
         <v>9936935.015126897</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>23</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6285,11 +6325,17 @@
         <v>9982028.238626897</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>23</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6318,11 +6364,17 @@
         <v>10321775.45319303</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>23</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6351,11 +6403,17 @@
         <v>10663298.56485296</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>23</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6384,11 +6442,17 @@
         <v>10508712.90294492</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>23</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6417,11 +6481,17 @@
         <v>10777478.28783688</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6450,11 +6520,17 @@
         <v>11846107.64413719</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>23</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6483,11 +6559,17 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>23</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6516,11 +6598,17 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>23</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6549,11 +6637,17 @@
         <v>11580366.43979216</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>23</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6582,11 +6676,17 @@
         <v>11817040.63862682</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>23</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +6715,17 @@
         <v>10765394.09952682</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6648,11 +6754,17 @@
         <v>10488635.03952682</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>23</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6681,11 +6793,17 @@
         <v>10546588.12262682</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>23</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +6832,17 @@
         <v>10969227.23502682</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>23</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6750,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>23</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6783,8 +6913,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>23</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6816,8 +6952,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>23</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6849,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6882,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>23</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6915,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>23</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6948,8 +7108,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>23</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6981,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>23</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7014,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>23</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7047,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7080,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>23</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7113,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>23</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7146,8 +7342,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>23</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7179,8 +7381,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>23</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7420,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>23</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7245,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>23</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7278,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>23</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7311,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>23</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7344,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>23</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7377,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>23</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7410,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>23</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7443,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>23</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7476,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>23</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7509,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>23</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7542,8 +7810,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>23</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7575,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>23</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7608,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>23</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7641,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>23</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7674,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>23</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7707,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>23</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7740,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>23</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7773,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>23</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7806,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>23</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7839,8 +8161,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>23</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7872,8 +8200,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>23</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7905,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>23</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7938,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>23</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7971,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>23</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8004,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>23</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8037,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>23</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8070,8 +8434,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>23</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8103,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>23</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8136,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>23</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8169,8 +8551,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>23</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8202,8 +8590,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>23</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8235,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>23</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8268,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>23</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8301,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>23</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8334,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>23</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8367,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>23</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8400,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>23</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8433,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>23</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8463,15 +8899,23 @@
         <v>12591748.13731156</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>23</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>1.542826086956522</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8496,7 +8940,7 @@
         <v>11947401.13754489</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8529,7 +8973,7 @@
         <v>12687907.57691106</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8562,7 +9006,7 @@
         <v>11769397.646767</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8595,7 +9039,7 @@
         <v>11213921.950667</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8628,7 +9072,7 @@
         <v>11687097.208167</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8661,7 +9105,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8694,7 +9138,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8727,7 +9171,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8760,7 +9204,7 @@
         <v>11954098.525467</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8793,7 +9237,7 @@
         <v>11166580.42296699</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8826,7 +9270,7 @@
         <v>10839222.11236699</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8859,7 +9303,7 @@
         <v>11368114.43014868</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8892,7 +9336,7 @@
         <v>10877025.76714868</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8925,7 +9369,7 @@
         <v>11064087.91004868</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8958,7 +9402,7 @@
         <v>11329107.92337951</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8991,7 +9435,7 @@
         <v>11299742.39897951</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9024,7 +9468,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9057,7 +9501,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9090,7 +9534,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9123,7 +9567,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9156,7 +9600,7 @@
         <v>10894366.50617952</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9189,7 +9633,7 @@
         <v>11012423.03997952</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9222,7 +9666,7 @@
         <v>10809450.64027951</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9255,7 +9699,7 @@
         <v>10673598.46177951</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9288,7 +9732,7 @@
         <v>10252011.51619046</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9321,7 +9765,7 @@
         <v>10456087.23109046</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9354,7 +9798,7 @@
         <v>10275723.99949046</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9387,7 +9831,7 @@
         <v>10276173.66869046</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9420,7 +9864,7 @@
         <v>10107432.74199046</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9453,7 +9897,7 @@
         <v>9918908.551290456</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9486,7 +9930,7 @@
         <v>9712437.251890456</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
